--- a/VB_qtr_data_2021-23.xlsx
+++ b/VB_qtr_data_2021-23.xlsx
@@ -8,26 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/nitin_s_capgemini_com/Documents/CAPGEMINI/GenAI Hackathon/input-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="622" documentId="11_F25DC773A252ABDACC10488931DA73D85ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C831243-3293-462C-8319-05654468FD27}"/>
+  <xr:revisionPtr revIDLastSave="639" documentId="11_F25DC773A252ABDACC10488931DA73D85ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C881FB8-DFC5-40BE-A6D4-05433605B56F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="1" r:id="rId1"/>
     <sheet name="Standalone" sheetId="2" r:id="rId2"/>
     <sheet name="Year sheet" sheetId="3" r:id="rId3"/>
+    <sheet name="Competitive_analysis" sheetId="4" r:id="rId4"/>
+    <sheet name="demograph" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
   <si>
     <t>Particulars</t>
   </si>
@@ -207,6 +220,78 @@
   </si>
   <si>
     <t>3 729.20</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Varun Beverages</t>
+  </si>
+  <si>
+    <t>Company A</t>
+  </si>
+  <si>
+    <t>Company B</t>
+  </si>
+  <si>
+    <t>Company C</t>
+  </si>
+  <si>
+    <t>Q4-2023</t>
+  </si>
+  <si>
+    <t>Q3-2023</t>
+  </si>
+  <si>
+    <t>Q2-2023</t>
+  </si>
+  <si>
+    <t>Q1-2023</t>
+  </si>
+  <si>
+    <t>Q4-2022</t>
+  </si>
+  <si>
+    <t>Q3-2022</t>
+  </si>
+  <si>
+    <t>Q2-2022</t>
+  </si>
+  <si>
+    <t>Q1-2022</t>
+  </si>
+  <si>
+    <t>Q4-2021</t>
+  </si>
+  <si>
+    <t>Q3-2021</t>
+  </si>
+  <si>
+    <t>Q2-2021</t>
+  </si>
+  <si>
+    <t>Q1-2021</t>
+  </si>
+  <si>
+    <t>Q4-2020</t>
+  </si>
+  <si>
+    <t>Q1-2020</t>
+  </si>
+  <si>
+    <t>Age group</t>
+  </si>
+  <si>
+    <t>5-25</t>
+  </si>
+  <si>
+    <t>26-49</t>
+  </si>
+  <si>
+    <t>50-75</t>
+  </si>
+  <si>
+    <t>above 75 years</t>
   </si>
 </sst>
 </file>
@@ -278,7 +363,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -291,6 +376,9 @@
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4004,4 +4092,380 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF90ED4-BFA6-4CB1-A973-9D8A3DDC509A}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>27400.98</v>
+      </c>
+      <c r="C2">
+        <v>35621.273999999998</v>
+      </c>
+      <c r="D2">
+        <v>10686.3822</v>
+      </c>
+      <c r="E2">
+        <v>23290.832999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>39562.620000000003</v>
+      </c>
+      <c r="C3">
+        <v>51431.406000000003</v>
+      </c>
+      <c r="D3">
+        <v>15429.421800000004</v>
+      </c>
+      <c r="E3">
+        <v>33628.226999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>57413.36</v>
+      </c>
+      <c r="C4">
+        <v>74637.368000000002</v>
+      </c>
+      <c r="D4">
+        <v>22391.210400000004</v>
+      </c>
+      <c r="E4">
+        <v>48801.356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>39627.269999999997</v>
+      </c>
+      <c r="C5">
+        <v>51515.450999999994</v>
+      </c>
+      <c r="D5">
+        <v>15454.635300000002</v>
+      </c>
+      <c r="E5">
+        <v>33683.179499999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>22664.46</v>
+      </c>
+      <c r="C6">
+        <v>29463.797999999999</v>
+      </c>
+      <c r="D6">
+        <v>8839.1394</v>
+      </c>
+      <c r="E6">
+        <v>19264.790999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>32589.24</v>
+      </c>
+      <c r="C7">
+        <v>42366.012000000002</v>
+      </c>
+      <c r="D7">
+        <v>12709.803600000003</v>
+      </c>
+      <c r="E7">
+        <v>27700.853999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>50280.52</v>
+      </c>
+      <c r="C8">
+        <v>65364.675999999992</v>
+      </c>
+      <c r="D8">
+        <v>19609.402800000003</v>
+      </c>
+      <c r="E8">
+        <v>42738.441999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>28759.85</v>
+      </c>
+      <c r="C9">
+        <v>37387.805</v>
+      </c>
+      <c r="D9">
+        <v>11216.341500000002</v>
+      </c>
+      <c r="E9">
+        <v>24445.872499999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>17657.900000000001</v>
+      </c>
+      <c r="C10">
+        <v>22955.27</v>
+      </c>
+      <c r="D10">
+        <v>6886.5810000000019</v>
+      </c>
+      <c r="E10">
+        <v>15009.215000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>24773.68</v>
+      </c>
+      <c r="C11">
+        <v>32205.784</v>
+      </c>
+      <c r="D11">
+        <v>9661.7352000000028</v>
+      </c>
+      <c r="E11">
+        <v>21057.628000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12">
+        <v>25074.52</v>
+      </c>
+      <c r="C12">
+        <v>32596.876</v>
+      </c>
+      <c r="D12">
+        <v>9779.0627999999997</v>
+      </c>
+      <c r="E12">
+        <v>21313.342000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <v>22756.06</v>
+      </c>
+      <c r="C13">
+        <v>29582.878000000001</v>
+      </c>
+      <c r="D13">
+        <v>8874.863400000002</v>
+      </c>
+      <c r="E13">
+        <v>19342.651000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14">
+        <v>13569.08</v>
+      </c>
+      <c r="C14">
+        <v>17639.804</v>
+      </c>
+      <c r="D14">
+        <v>5291.9412000000011</v>
+      </c>
+      <c r="E14">
+        <v>11533.718000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>17245.12</v>
+      </c>
+      <c r="C15">
+        <v>22418.655999999999</v>
+      </c>
+      <c r="D15">
+        <v>6725.5968000000012</v>
+      </c>
+      <c r="E15">
+        <v>14658.351999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281E0085-AC47-431A-93B2-DB5DAD843482}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.54</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VB_qtr_data_2021-23.xlsx
+++ b/VB_qtr_data_2021-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/nitin_s_capgemini_com/Documents/CAPGEMINI/GenAI Hackathon/input-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="639" documentId="11_F25DC773A252ABDACC10488931DA73D85ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C881FB8-DFC5-40BE-A6D4-05433605B56F}"/>
+  <xr:revisionPtr revIDLastSave="652" documentId="11_F25DC773A252ABDACC10488931DA73D85ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D43FAFF0-D77D-4976-93F0-E6F9B9986124}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="1" r:id="rId1"/>
@@ -4098,8 +4098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF90ED4-BFA6-4CB1-A973-9D8A3DDC509A}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4152,13 +4152,13 @@
         <v>39562.620000000003</v>
       </c>
       <c r="C3">
-        <v>51431.406000000003</v>
+        <v>42366.012000000002</v>
       </c>
       <c r="D3">
         <v>15429.421800000004</v>
       </c>
       <c r="E3">
-        <v>33628.226999999999</v>
+        <v>24445.872499999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -4169,13 +4169,13 @@
         <v>57413.36</v>
       </c>
       <c r="C4">
-        <v>74637.368000000002</v>
+        <v>65364.675999999992</v>
       </c>
       <c r="D4">
-        <v>22391.210400000004</v>
+        <v>9661.7352000000028</v>
       </c>
       <c r="E4">
-        <v>48801.356</v>
+        <v>15009.215000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -4189,10 +4189,10 @@
         <v>51515.450999999994</v>
       </c>
       <c r="D5">
-        <v>15454.635300000002</v>
+        <v>9779.0627999999997</v>
       </c>
       <c r="E5">
-        <v>33683.179499999998</v>
+        <v>21057.628000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -4206,10 +4206,10 @@
         <v>29463.797999999999</v>
       </c>
       <c r="D6">
-        <v>8839.1394</v>
+        <v>8874.863400000002</v>
       </c>
       <c r="E6">
-        <v>19264.790999999997</v>
+        <v>21313.342000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -4220,10 +4220,10 @@
         <v>32589.24</v>
       </c>
       <c r="C7">
-        <v>42366.012000000002</v>
+        <v>51431.406000000003</v>
       </c>
       <c r="D7">
-        <v>12709.803600000003</v>
+        <v>5291.9412000000011</v>
       </c>
       <c r="E7">
         <v>27700.853999999999</v>
@@ -4237,7 +4237,7 @@
         <v>50280.52</v>
       </c>
       <c r="C8">
-        <v>65364.675999999992</v>
+        <v>32596.876</v>
       </c>
       <c r="D8">
         <v>19609.402800000003</v>
@@ -4260,7 +4260,7 @@
         <v>11216.341500000002</v>
       </c>
       <c r="E9">
-        <v>24445.872499999998</v>
+        <v>33628.226999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4277,7 +4277,7 @@
         <v>6886.5810000000019</v>
       </c>
       <c r="E10">
-        <v>15009.215000000002</v>
+        <v>48801.356</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -4291,10 +4291,10 @@
         <v>32205.784</v>
       </c>
       <c r="D11">
-        <v>9661.7352000000028</v>
+        <v>15429.421800000004</v>
       </c>
       <c r="E11">
-        <v>21057.628000000001</v>
+        <v>33683.179499999998</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -4308,10 +4308,10 @@
         <v>32596.876</v>
       </c>
       <c r="D12">
-        <v>9779.0627999999997</v>
+        <v>22391.210400000004</v>
       </c>
       <c r="E12">
-        <v>21313.342000000001</v>
+        <v>19264.790999999997</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -4325,7 +4325,7 @@
         <v>29582.878000000001</v>
       </c>
       <c r="D13">
-        <v>8874.863400000002</v>
+        <v>15454.635300000002</v>
       </c>
       <c r="E13">
         <v>19342.651000000002</v>
@@ -4342,7 +4342,7 @@
         <v>17639.804</v>
       </c>
       <c r="D14">
-        <v>5291.9412000000011</v>
+        <v>8839.1394</v>
       </c>
       <c r="E14">
         <v>11533.718000000001</v>
@@ -4374,7 +4374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281E0085-AC47-431A-93B2-DB5DAD843482}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
